--- a/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha2_firstrun.xlsx
+++ b/Mathematical Model/Scarcity Model/parameters_w_50/a_alpha/nonEmpty_diff_a_alpha2_firstrun.xlsx
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5192307692307693</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C3">
-        <v>0.5144124168514412</v>
+        <v>0.5123042505592841</v>
       </c>
       <c r="D3">
-        <v>0.5390625</v>
+        <v>0.5559701492537313</v>
       </c>
       <c r="E3">
-        <v>0.5064102564102564</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="F3">
-        <v>0.5345454545454545</v>
+        <v>0.5492957746478874</v>
       </c>
       <c r="G3">
-        <v>0.4979166666666667</v>
+        <v>0.5042016806722689</v>
       </c>
       <c r="H3">
-        <v>0.5</v>
+        <v>0.492</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5466666666666666</v>
+        <v>0.5975609756097561</v>
       </c>
       <c r="C4">
-        <v>0.5068493150684932</v>
+        <v>0.4965831435079727</v>
       </c>
       <c r="D4">
-        <v>0.5266272189349113</v>
+        <v>0.5670103092783505</v>
       </c>
       <c r="E4">
-        <v>0.4878787878787879</v>
+        <v>0.4829721362229102</v>
       </c>
       <c r="F4">
-        <v>0.5345911949685535</v>
+        <v>0.5736842105263158</v>
       </c>
       <c r="G4">
-        <v>0.4776119402985075</v>
+        <v>0.481089258698941</v>
       </c>
       <c r="H4">
-        <v>0.51</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5728155339805825</v>
+        <v>0.54</v>
       </c>
       <c r="C5">
-        <v>0.5142231947483589</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="D5">
-        <v>0.5424836601307189</v>
+        <v>0.5960264900662252</v>
       </c>
       <c r="E5">
-        <v>0.4876373626373626</v>
+        <v>0.4873239436619718</v>
       </c>
       <c r="F5">
-        <v>0.5396825396825397</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G5">
-        <v>0.4797913950456323</v>
+        <v>0.4824797843665768</v>
       </c>
       <c r="H5">
-        <v>0.512</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5794392523364486</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C6">
-        <v>0.511727078891258</v>
+        <v>0.5285412262156448</v>
       </c>
       <c r="D6">
-        <v>0.5289855072463768</v>
+        <v>0.5147058823529411</v>
       </c>
       <c r="E6">
-        <v>0.4864864864864865</v>
+        <v>0.4926372155287818</v>
       </c>
       <c r="F6">
-        <v>0.4956521739130435</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.479746835443038</v>
+        <v>0.4847328244274809</v>
       </c>
       <c r="H6">
-        <v>0.512</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6017699115044248</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C7">
-        <v>0.5048923679060665</v>
+        <v>0.528</v>
       </c>
       <c r="D7">
-        <v>0.5503875968992248</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="E7">
-        <v>0.4868073878627968</v>
+        <v>0.5072847682119205</v>
       </c>
       <c r="F7">
-        <v>0.5405405405405406</v>
+        <v>0.4774774774774775</v>
       </c>
       <c r="G7">
-        <v>0.4729559748427673</v>
+        <v>0.5056746532156369</v>
       </c>
       <c r="H7">
-        <v>0.52</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6343283582089553</v>
+        <v>0.6115702479338843</v>
       </c>
       <c r="C8">
-        <v>0.5036630036630036</v>
+        <v>0.5075187969924813</v>
       </c>
       <c r="D8">
-        <v>0.5446428571428571</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="E8">
-        <v>0.4849673202614379</v>
+        <v>0.49800796812749</v>
       </c>
       <c r="F8">
-        <v>0.5321100917431193</v>
+        <v>0.5041322314049587</v>
       </c>
       <c r="G8">
-        <v>0.4685138539042821</v>
+        <v>0.5038167938931297</v>
       </c>
       <c r="H8">
-        <v>0.516</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6225165562913907</v>
+        <v>0.6554621848739496</v>
       </c>
       <c r="C9">
-        <v>0.5008849557522124</v>
+        <v>0.5164644714038128</v>
       </c>
       <c r="D9">
-        <v>0.4796747967479675</v>
+        <v>0.484375</v>
       </c>
       <c r="E9">
-        <v>0.500646830530401</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="F9">
-        <v>0.504424778761062</v>
+        <v>0.6090909090909091</v>
       </c>
       <c r="G9">
-        <v>0.4654731457800512</v>
+        <v>0.4993630573248408</v>
       </c>
       <c r="H9">
-        <v>0.52</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6301369863013698</v>
+        <v>0.6782608695652174</v>
       </c>
       <c r="C10">
-        <v>0.4974271012006861</v>
+        <v>0.5049342105263158</v>
       </c>
       <c r="D10">
-        <v>0.4692307692307692</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E10">
-        <v>0.5105263157894737</v>
+        <v>0.5019867549668874</v>
       </c>
       <c r="F10">
-        <v>0.4262295081967213</v>
+        <v>0.5904761904761905</v>
       </c>
       <c r="G10">
-        <v>0.4717223650385604</v>
+        <v>0.4917197452229299</v>
       </c>
       <c r="H10">
-        <v>0.512</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5547945205479452</v>
+        <v>0.6446280991735537</v>
       </c>
       <c r="C11">
-        <v>0.5007974481658692</v>
+        <v>0.5052473763118441</v>
       </c>
       <c r="D11">
-        <v>0.5378787878787878</v>
+        <v>0.484375</v>
       </c>
       <c r="E11">
-        <v>0.5139442231075697</v>
+        <v>0.5083870967741936</v>
       </c>
       <c r="F11">
-        <v>0.4793388429752066</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="G11">
-        <v>0.4677835051546392</v>
+        <v>0.4869240348692404</v>
       </c>
       <c r="H11">
-        <v>0.516</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5714285714285714</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="C12">
-        <v>0.5142428785607196</v>
+        <v>0.5112994350282486</v>
       </c>
       <c r="D12">
-        <v>0.552</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="E12">
-        <v>0.5093333333333333</v>
+        <v>0.5057324840764331</v>
       </c>
       <c r="F12">
-        <v>0.4690265486725664</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="G12">
-        <v>0.4562982005141388</v>
+        <v>0.488833746898263</v>
       </c>
       <c r="H12">
-        <v>0.502</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6025641025641025</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="C13">
-        <v>0.509090909090909</v>
+        <v>0.5115020297699594</v>
       </c>
       <c r="D13">
-        <v>0.5748031496062992</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E13">
-        <v>0.5135483870967742</v>
+        <v>0.5076335877862596</v>
       </c>
       <c r="F13">
-        <v>0.4403669724770642</v>
+        <v>0.52</v>
       </c>
       <c r="G13">
-        <v>0.45875</v>
+        <v>0.4865196078431372</v>
       </c>
       <c r="H13">
-        <v>0.474</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -741,22 +741,22 @@
         <v>0.6131386861313869</v>
       </c>
       <c r="C14">
-        <v>0.5046113306982872</v>
+        <v>0.5177398160315374</v>
       </c>
       <c r="D14">
-        <v>0.5423728813559322</v>
+        <v>0.4608695652173913</v>
       </c>
       <c r="E14">
-        <v>0.5160462130937099</v>
+        <v>0.5115681233933161</v>
       </c>
       <c r="F14">
-        <v>0.4444444444444444</v>
+        <v>0.504950495049505</v>
       </c>
       <c r="G14">
-        <v>0.4645962732919255</v>
+        <v>0.48375</v>
       </c>
       <c r="H14">
-        <v>0.474</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5454545454545454</v>
+        <v>0.6137931034482759</v>
       </c>
       <c r="C15">
-        <v>0.5036945812807881</v>
+        <v>0.5183374083129584</v>
       </c>
       <c r="D15">
-        <v>0.5241935483870968</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="E15">
-        <v>0.517464424320828</v>
+        <v>0.5006418485237484</v>
       </c>
       <c r="F15">
-        <v>0.494949494949495</v>
+        <v>0.4711538461538461</v>
       </c>
       <c r="G15">
-        <v>0.4683229813664596</v>
+        <v>0.4783683559950556</v>
       </c>
       <c r="H15">
-        <v>0.458</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5853658536585366</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C16">
-        <v>0.5190751445086705</v>
+        <v>0.519434628975265</v>
       </c>
       <c r="D16">
-        <v>0.5116279069767442</v>
+        <v>0.4553571428571428</v>
       </c>
       <c r="E16">
-        <v>0.5191040843214756</v>
+        <v>0.494148244473342</v>
       </c>
       <c r="F16">
-        <v>0.5533980582524272</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G16">
-        <v>0.4573934837092732</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="H16">
-        <v>0.46</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6046511627906976</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C17">
-        <v>0.5181918412348401</v>
+        <v>0.5103448275862069</v>
       </c>
       <c r="D17">
-        <v>0.5</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="E17">
-        <v>0.5228758169934641</v>
+        <v>0.4776902887139108</v>
       </c>
       <c r="F17">
-        <v>0.5245901639344263</v>
+        <v>0.5188679245283019</v>
       </c>
       <c r="G17">
-        <v>0.4554579673776663</v>
+        <v>0.4800514800514801</v>
       </c>
       <c r="H17">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5886524822695035</v>
+        <v>0.6058394160583942</v>
       </c>
       <c r="C18">
-        <v>0.5180467091295117</v>
+        <v>0.5087336244541485</v>
       </c>
       <c r="D18">
-        <v>0.4961240310077519</v>
+        <v>0.575</v>
       </c>
       <c r="E18">
-        <v>0.52088772845953</v>
+        <v>0.4805194805194805</v>
       </c>
       <c r="F18">
-        <v>0.5350877192982456</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="G18">
-        <v>0.4621212121212121</v>
+        <v>0.494910941475827</v>
       </c>
       <c r="H18">
-        <v>0.45</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5757575757575758</v>
+        <v>0.5864661654135338</v>
       </c>
       <c r="C19">
-        <v>0.5253360910031024</v>
+        <v>0.5158227848101266</v>
       </c>
       <c r="D19">
-        <v>0.4516129032258064</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E19">
-        <v>0.5202614379084968</v>
+        <v>0.4698952879581152</v>
       </c>
       <c r="F19">
-        <v>0.5229357798165137</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="G19">
-        <v>0.4571788413098237</v>
+        <v>0.4967741935483871</v>
       </c>
       <c r="H19">
-        <v>0.442</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5945945945945946</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="C20">
-        <v>0.5248296007789679</v>
+        <v>0.518555667001003</v>
       </c>
       <c r="D20">
-        <v>0.4615384615384616</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="E20">
-        <v>0.5173745173745173</v>
+        <v>0.4774193548387097</v>
       </c>
       <c r="F20">
-        <v>0.5042735042735043</v>
+        <v>0.4924242424242424</v>
       </c>
       <c r="G20">
-        <v>0.4618272841051314</v>
+        <v>0.4980793854033291</v>
       </c>
       <c r="H20">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5923076923076923</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>0.5215723873441994</v>
+        <v>0.5218631178707225</v>
       </c>
       <c r="D21">
-        <v>0.4636363636363636</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E21">
-        <v>0.5117801047120419</v>
+        <v>0.480719794344473</v>
       </c>
       <c r="F21">
-        <v>0.5178571428571429</v>
+        <v>0.5175438596491229</v>
       </c>
       <c r="G21">
-        <v>0.4599745870393901</v>
+        <v>0.4936061381074169</v>
       </c>
       <c r="H21">
-        <v>0.442</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5904761904761905</v>
+        <v>0.6306306306306306</v>
       </c>
       <c r="C22">
-        <v>0.527027027027027</v>
+        <v>0.525830258302583</v>
       </c>
       <c r="D22">
-        <v>0.463768115942029</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="E22">
-        <v>0.5070603337612324</v>
+        <v>0.4803664921465969</v>
       </c>
       <c r="F22">
-        <v>0.5121951219512195</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="G22">
-        <v>0.4658227848101266</v>
+        <v>0.4865211810012837</v>
       </c>
       <c r="H22">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.576271186440678</v>
+        <v>0.6048387096774194</v>
       </c>
       <c r="C23">
-        <v>0.5280135823429541</v>
+        <v>0.5220848056537103</v>
       </c>
       <c r="D23">
-        <v>0.4390243902439024</v>
+        <v>0.4724409448818898</v>
       </c>
       <c r="E23">
-        <v>0.5045751633986928</v>
+        <v>0.4758169934640523</v>
       </c>
       <c r="F23">
-        <v>0.5428571428571428</v>
+        <v>0.4609375</v>
       </c>
       <c r="G23">
-        <v>0.4608585858585859</v>
+        <v>0.4942381562099872</v>
       </c>
       <c r="H23">
-        <v>0.44</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.576</v>
+        <v>0.5891472868217055</v>
       </c>
       <c r="C24">
-        <v>0.5266222961730449</v>
+        <v>0.5212121212121212</v>
       </c>
       <c r="D24">
-        <v>0.4881889763779528</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E24">
-        <v>0.5025974025974026</v>
+        <v>0.4811443433029909</v>
       </c>
       <c r="F24">
-        <v>0.5769230769230769</v>
+        <v>0.416</v>
       </c>
       <c r="G24">
-        <v>0.4576059850374065</v>
+        <v>0.4974358974358974</v>
       </c>
       <c r="H24">
-        <v>0.45</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5882352941176471</v>
+        <v>0.5352112676056338</v>
       </c>
       <c r="C25">
-        <v>0.5338775510204081</v>
+        <v>0.5244107744107744</v>
       </c>
       <c r="D25">
-        <v>0.5299145299145299</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E25">
-        <v>0.4927152317880795</v>
+        <v>0.4883419689119171</v>
       </c>
       <c r="F25">
-        <v>0.5135135135135135</v>
+        <v>0.4234234234234234</v>
       </c>
       <c r="G25">
-        <v>0.4653215636822194</v>
+        <v>0.4929396662387677</v>
       </c>
       <c r="H25">
-        <v>0.44</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.5531914893617021</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C26">
-        <v>0.5304975922953451</v>
+        <v>0.5250417362270451</v>
       </c>
       <c r="D26">
-        <v>0.4586466165413534</v>
+        <v>0.475</v>
       </c>
       <c r="E26">
-        <v>0.5019607843137255</v>
+        <v>0.4863102998696219</v>
       </c>
       <c r="F26">
-        <v>0.4916666666666666</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="G26">
-        <v>0.4693877551020408</v>
+        <v>0.4841168996188056</v>
       </c>
       <c r="H26">
-        <v>0.422</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.5571428571428572</v>
+        <v>0.5546875</v>
       </c>
       <c r="C27">
-        <v>0.5339578454332553</v>
+        <v>0.5255183413078149</v>
       </c>
       <c r="D27">
-        <v>0.4565217391304348</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E27">
-        <v>0.5065616797900262</v>
+        <v>0.484375</v>
       </c>
       <c r="F27">
-        <v>0.4504504504504505</v>
+        <v>0.4741379310344828</v>
       </c>
       <c r="G27">
-        <v>0.4707379134860051</v>
+        <v>0.4879288437102923</v>
       </c>
       <c r="H27">
-        <v>0.43</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.582089552238806</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C28">
-        <v>0.5309667673716012</v>
+        <v>0.5266821345707656</v>
       </c>
       <c r="D28">
-        <v>0.48</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="E28">
-        <v>0.5019607843137255</v>
+        <v>0.4761290322580645</v>
       </c>
       <c r="F28">
-        <v>0.3904761904761905</v>
+        <v>0.4322033898305085</v>
       </c>
       <c r="G28">
-        <v>0.4665012406947891</v>
+        <v>0.4817150063051702</v>
       </c>
       <c r="H28">
-        <v>0.434</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.5514705882352942</v>
+        <v>0.5503875968992248</v>
       </c>
       <c r="C29">
-        <v>0.5303584491587418</v>
+        <v>0.5281743050338091</v>
       </c>
       <c r="D29">
-        <v>0.5363636363636364</v>
+        <v>0.5169491525423728</v>
       </c>
       <c r="E29">
-        <v>0.4987113402061856</v>
+        <v>0.474025974025974</v>
       </c>
       <c r="F29">
-        <v>0.4193548387096774</v>
+        <v>0.5089285714285714</v>
       </c>
       <c r="G29">
-        <v>0.4752475247524752</v>
+        <v>0.4815756035578145</v>
       </c>
       <c r="H29">
-        <v>0.426</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.5895522388059702</v>
+        <v>0.5424836601307189</v>
       </c>
       <c r="C30">
-        <v>0.5357142857142857</v>
+        <v>0.5293691080493111</v>
       </c>
       <c r="D30">
-        <v>0.456896551724138</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E30">
-        <v>0.4936386768447837</v>
+        <v>0.4660691421254802</v>
       </c>
       <c r="F30">
-        <v>0.4516129032258064</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="G30">
-        <v>0.4692874692874693</v>
+        <v>0.4730913642052565</v>
       </c>
       <c r="H30">
-        <v>0.426</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.5714285714285714</v>
+        <v>0.503448275862069</v>
       </c>
       <c r="C31">
-        <v>0.5363825363825364</v>
+        <v>0.53012912482066</v>
       </c>
       <c r="D31">
-        <v>0.4513274336283186</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="E31">
-        <v>0.4987146529562982</v>
+        <v>0.4629388816644994</v>
       </c>
       <c r="F31">
-        <v>0.4722222222222222</v>
+        <v>0.5514018691588785</v>
       </c>
       <c r="G31">
-        <v>0.4612546125461255</v>
+        <v>0.4668335419274093</v>
       </c>
       <c r="H31">
-        <v>0.416</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.6376811594202898</v>
+        <v>0.5</v>
       </c>
       <c r="C32">
-        <v>0.5338294993234101</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="D32">
-        <v>0.4406779661016949</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="E32">
-        <v>0.4930291508238276</v>
+        <v>0.4798962386511025</v>
       </c>
       <c r="F32">
-        <v>0.509090909090909</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="G32">
-        <v>0.4614427860696517</v>
+        <v>0.4627054361567636</v>
       </c>
       <c r="H32">
-        <v>0.416</v>
+        <v>0.462</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.6405228758169934</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C33">
-        <v>0.5317040951122853</v>
+        <v>0.5298558682223747</v>
       </c>
       <c r="D33">
-        <v>0.5636363636363636</v>
+        <v>0.5078125</v>
       </c>
       <c r="E33">
-        <v>0.4923076923076923</v>
+        <v>0.4779792746113989</v>
       </c>
       <c r="F33">
-        <v>0.5188679245283019</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="G33">
-        <v>0.4544319600499376</v>
+        <v>0.4561626429479034</v>
       </c>
       <c r="H33">
-        <v>0.424</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.632258064516129</v>
+        <v>0.6013513513513513</v>
       </c>
       <c r="C34">
-        <v>0.5340687865022713</v>
+        <v>0.5233644859813084</v>
       </c>
       <c r="D34">
-        <v>0.5087719298245614</v>
+        <v>0.5528455284552846</v>
       </c>
       <c r="E34">
-        <v>0.4790343074968234</v>
+        <v>0.4734799482535575</v>
       </c>
       <c r="F34">
-        <v>0.4716981132075472</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="G34">
-        <v>0.4613466334164589</v>
+        <v>0.45625</v>
       </c>
       <c r="H34">
-        <v>0.422</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.6232876712328768</v>
+        <v>0.6277372262773723</v>
       </c>
       <c r="C35">
-        <v>0.5307156428119063</v>
+        <v>0.5134602757715037</v>
       </c>
       <c r="D35">
-        <v>0.4774774774774775</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="E35">
-        <v>0.4791403286978508</v>
+        <v>0.47911227154047</v>
       </c>
       <c r="F35">
-        <v>0.4903846153846154</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="G35">
-        <v>0.4665841584158416</v>
+        <v>0.450507614213198</v>
       </c>
       <c r="H35">
-        <v>0.412</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.5859872611464968</v>
+        <v>0.6043165467625899</v>
       </c>
       <c r="C36">
-        <v>0.5291948371235402</v>
+        <v>0.5116572148708255</v>
       </c>
       <c r="D36">
-        <v>0.5046728971962616</v>
+        <v>0.5642857142857143</v>
       </c>
       <c r="E36">
-        <v>0.4791403286978508</v>
+        <v>0.4820971867007673</v>
       </c>
       <c r="F36">
-        <v>0.4842105263157895</v>
+        <v>0.3984375</v>
       </c>
       <c r="G36">
-        <v>0.4732919254658385</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="H36">
-        <v>0.398</v>
+        <v>0.452</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.5786163522012578</v>
+        <v>0.5579710144927537</v>
       </c>
       <c r="C37">
-        <v>0.5302663438256658</v>
+        <v>0.5155666251556662</v>
       </c>
       <c r="D37">
-        <v>0.5350877192982456</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="E37">
-        <v>0.4766118836915297</v>
+        <v>0.4874504623513871</v>
       </c>
       <c r="F37">
-        <v>0.4903846153846154</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="G37">
-        <v>0.4649446494464944</v>
+        <v>0.4600515463917526</v>
       </c>
       <c r="H37">
-        <v>0.414</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.5705521472392638</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="C38">
-        <v>0.5336911150864639</v>
+        <v>0.5164634146341464</v>
       </c>
       <c r="D38">
-        <v>0.5405405405405406</v>
+        <v>0.4789915966386555</v>
       </c>
       <c r="E38">
-        <v>0.4736164736164736</v>
+        <v>0.5012919896640827</v>
       </c>
       <c r="F38">
-        <v>0.4862385321100918</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G38">
-        <v>0.4716981132075472</v>
+        <v>0.4462915601023018</v>
       </c>
       <c r="H38">
-        <v>0.386</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.5743243243243243</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="C39">
-        <v>0.5303119482048264</v>
+        <v>0.5157083580320095</v>
       </c>
       <c r="D39">
-        <v>0.4576271186440678</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E39">
-        <v>0.4636363636363636</v>
+        <v>0.5019157088122606</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.3963963963963964</v>
       </c>
       <c r="G39">
-        <v>0.4700636942675159</v>
+        <v>0.4521410579345088</v>
       </c>
       <c r="H39">
-        <v>0.396</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.5874125874125874</v>
+        <v>0.5887096774193549</v>
       </c>
       <c r="C40">
-        <v>0.5295790671217292</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="D40">
-        <v>0.5528455284552846</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E40">
-        <v>0.4641943734015345</v>
+        <v>0.4987212276214834</v>
       </c>
       <c r="F40">
-        <v>0.5641025641025641</v>
+        <v>0.4766355140186916</v>
       </c>
       <c r="G40">
-        <v>0.4711779448621554</v>
+        <v>0.4456928838951311</v>
       </c>
       <c r="H40">
-        <v>0.394</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6119402985074627</v>
+        <v>0.6283185840707964</v>
       </c>
       <c r="C41">
-        <v>0.5237831858407079</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="D41">
-        <v>0.5378151260504201</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="E41">
-        <v>0.4554579673776663</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="F41">
-        <v>0.5754716981132075</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G41">
-        <v>0.4753694581280788</v>
+        <v>0.4379001280409731</v>
       </c>
       <c r="H41">
-        <v>0.386</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6209677419354839</v>
+        <v>0.6178861788617886</v>
       </c>
       <c r="C42">
-        <v>0.5203252032520326</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="D42">
-        <v>0.5945945945945946</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="E42">
-        <v>0.461441213653603</v>
+        <v>0.5141752577319587</v>
       </c>
       <c r="F42">
-        <v>0.5698924731182796</v>
+        <v>0.4453781512605042</v>
       </c>
       <c r="G42">
-        <v>0.4803439803439803</v>
+        <v>0.4389312977099237</v>
       </c>
       <c r="H42">
-        <v>0.388</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6220472440944882</v>
+        <v>0.5785123966942148</v>
       </c>
       <c r="C43">
-        <v>0.5205333333333333</v>
+        <v>0.5106035889070146</v>
       </c>
       <c r="D43">
-        <v>0.5576923076923077</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="E43">
-        <v>0.4671814671814672</v>
+        <v>0.5115681233933161</v>
       </c>
       <c r="F43">
-        <v>0.5252525252525253</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="G43">
-        <v>0.48625</v>
+        <v>0.4378109452736318</v>
       </c>
       <c r="H43">
-        <v>0.402</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.5982905982905983</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="C44">
-        <v>0.5250131648235914</v>
+        <v>0.5142396560988716</v>
       </c>
       <c r="D44">
-        <v>0.5</v>
+        <v>0.5446428571428571</v>
       </c>
       <c r="E44">
-        <v>0.4747081712062257</v>
+        <v>0.4980237154150198</v>
       </c>
       <c r="F44">
-        <v>0.4727272727272727</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="G44">
-        <v>0.4834605597964376</v>
+        <v>0.4294871794871795</v>
       </c>
       <c r="H44">
-        <v>0.41</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.5851851851851851</v>
+        <v>0.5899280575539568</v>
       </c>
       <c r="C45">
-        <v>0.5250767656090072</v>
+        <v>0.5144076840981857</v>
       </c>
       <c r="D45">
-        <v>0.4692307692307692</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="E45">
-        <v>0.4813384813384813</v>
+        <v>0.4920212765957447</v>
       </c>
       <c r="F45">
-        <v>0.5357142857142857</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G45">
-        <v>0.4831038798498123</v>
+        <v>0.4311688311688311</v>
       </c>
       <c r="H45">
-        <v>0.416</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.5639097744360902</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C46">
-        <v>0.5230613279270147</v>
+        <v>0.5134139926354551</v>
       </c>
       <c r="D46">
-        <v>0.4495412844036697</v>
+        <v>0.5302013422818792</v>
       </c>
       <c r="E46">
-        <v>0.4832904884318766</v>
+        <v>0.49519890260631</v>
       </c>
       <c r="F46">
-        <v>0.5306122448979592</v>
+        <v>0.5284552845528455</v>
       </c>
       <c r="G46">
-        <v>0.4747225647348952</v>
+        <v>0.4361290322580645</v>
       </c>
       <c r="H46">
-        <v>0.432</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6610169491525424</v>
+        <v>0.5785714285714286</v>
       </c>
       <c r="C47">
-        <v>0.5226255594231726</v>
+        <v>0.5160123966942148</v>
       </c>
       <c r="D47">
-        <v>0.496</v>
+        <v>0.5401459854014599</v>
       </c>
       <c r="E47">
-        <v>0.4821882951653944</v>
+        <v>0.4873164218958612</v>
       </c>
       <c r="F47">
-        <v>0.4636363636363636</v>
+        <v>0.5137614678899083</v>
       </c>
       <c r="G47">
-        <v>0.4730392156862745</v>
+        <v>0.4421855146124524</v>
       </c>
       <c r="H47">
-        <v>0.446</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6554621848739496</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="C48">
-        <v>0.5135790494665373</v>
+        <v>0.5136501516683518</v>
       </c>
       <c r="D48">
-        <v>0.5555555555555556</v>
+        <v>0.5488721804511278</v>
       </c>
       <c r="E48">
-        <v>0.4709677419354839</v>
+        <v>0.485006518904824</v>
       </c>
       <c r="F48">
-        <v>0.4536082474226804</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="G48">
-        <v>0.4807453416149068</v>
+        <v>0.4582814445828144</v>
       </c>
       <c r="H48">
-        <v>0.438</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6636363636363637</v>
+        <v>0.6131386861313869</v>
       </c>
       <c r="C49">
-        <v>0.5126130414088529</v>
+        <v>0.5063663075416258</v>
       </c>
       <c r="D49">
-        <v>0.5775862068965517</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="E49">
-        <v>0.4580645161290323</v>
+        <v>0.487012987012987</v>
       </c>
       <c r="F49">
-        <v>0.5252525252525253</v>
+        <v>0.5321100917431193</v>
       </c>
       <c r="G49">
-        <v>0.4766009852216749</v>
+        <v>0.462406015037594</v>
       </c>
       <c r="H49">
-        <v>0.44</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6311475409836066</v>
+        <v>0.5971223021582733</v>
       </c>
       <c r="C50">
-        <v>0.5133489461358314</v>
+        <v>0.5094982951777886</v>
       </c>
       <c r="D50">
-        <v>0.5378151260504201</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="E50">
-        <v>0.4699738903394256</v>
+        <v>0.4954604409857328</v>
       </c>
       <c r="F50">
-        <v>0.5578947368421052</v>
+        <v>0.5</v>
       </c>
       <c r="G50">
-        <v>0.4766708701134931</v>
+        <v>0.4576485461441214</v>
       </c>
       <c r="H50">
-        <v>0.434</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6451612903225806</v>
+        <v>0.6050955414012739</v>
       </c>
       <c r="C51">
-        <v>0.5148423005565863</v>
+        <v>0.5100767754318618</v>
       </c>
       <c r="D51">
-        <v>0.5074626865671642</v>
+        <v>0.5564516129032258</v>
       </c>
       <c r="E51">
-        <v>0.4770039421813403</v>
+        <v>0.4934895833333333</v>
       </c>
       <c r="F51">
-        <v>0.4636363636363636</v>
+        <v>0.4601769911504425</v>
       </c>
       <c r="G51">
-        <v>0.4824120603015075</v>
+        <v>0.4681122448979592</v>
       </c>
       <c r="H51">
-        <v>0.416</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.5714285714285714</v>
+        <v>0.5815602836879432</v>
       </c>
       <c r="C52">
-        <v>0.51007326007326</v>
+        <v>0.5109108159392789</v>
       </c>
       <c r="D52">
-        <v>0.4609375</v>
+        <v>0.5259259259259259</v>
       </c>
       <c r="E52">
-        <v>0.4815303430079156</v>
+        <v>0.4884318766066838</v>
       </c>
       <c r="F52">
-        <v>0.5196078431372549</v>
+        <v>0.4954128440366973</v>
       </c>
       <c r="G52">
-        <v>0.4886649874055415</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="H52">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.5808823529411765</v>
+        <v>0.6402877697841727</v>
       </c>
       <c r="C53">
-        <v>0.5137946630483944</v>
+        <v>0.5108745950948634</v>
       </c>
       <c r="D53">
-        <v>0.5038167938931297</v>
+        <v>0.5</v>
       </c>
       <c r="E53">
-        <v>0.4819587628865979</v>
+        <v>0.4826254826254826</v>
       </c>
       <c r="F53">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="G53">
-        <v>0.4777777777777778</v>
+        <v>0.4711656441717791</v>
       </c>
       <c r="H53">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.5827814569536424</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="C54">
-        <v>0.5129003558718861</v>
+        <v>0.5068243858052776</v>
       </c>
       <c r="D54">
-        <v>0.5089285714285714</v>
+        <v>0.5040650406504065</v>
       </c>
       <c r="E54">
-        <v>0.4800514800514801</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="F54">
-        <v>0.5412844036697247</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="G54">
-        <v>0.4751861042183623</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H54">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.5746268656716418</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="C55">
-        <v>0.5106007067137809</v>
+        <v>0.5065344749887337</v>
       </c>
       <c r="D55">
-        <v>0.4912280701754386</v>
+        <v>0.52</v>
       </c>
       <c r="E55">
-        <v>0.4819587628865979</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="F55">
-        <v>0.5309734513274337</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="G55">
-        <v>0.4636942675159236</v>
+        <v>0.4620098039215687</v>
       </c>
       <c r="H55">
-        <v>0.442</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.5972222222222222</v>
+        <v>0.6766917293233082</v>
       </c>
       <c r="C56">
-        <v>0.5125868055555556</v>
+        <v>0.5037329819938515</v>
       </c>
       <c r="D56">
-        <v>0.5254237288135594</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="E56">
-        <v>0.4784876140808344</v>
+        <v>0.4755154639175257</v>
       </c>
       <c r="F56">
-        <v>0.4516129032258064</v>
+        <v>0.53125</v>
       </c>
       <c r="G56">
-        <v>0.4626288659793815</v>
+        <v>0.4588957055214724</v>
       </c>
       <c r="H56">
-        <v>0.448</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6030534351145038</v>
+        <v>0.6357142857142857</v>
       </c>
       <c r="C57">
-        <v>0.5085397096498719</v>
+        <v>0.5021663778162911</v>
       </c>
       <c r="D57">
-        <v>0.4852941176470588</v>
+        <v>0.5943396226415094</v>
       </c>
       <c r="E57">
-        <v>0.4718670076726343</v>
+        <v>0.4753886010362695</v>
       </c>
       <c r="F57">
-        <v>0.4957983193277311</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="G57">
-        <v>0.4745547073791349</v>
+        <v>0.4575645756457565</v>
       </c>
       <c r="H57">
-        <v>0.442</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6101694915254238</v>
+        <v>0.6143790849673203</v>
       </c>
       <c r="C58">
-        <v>0.5066889632107023</v>
+        <v>0.5034305317324185</v>
       </c>
       <c r="D58">
-        <v>0.5086206896551724</v>
+        <v>0.5225225225225225</v>
       </c>
       <c r="E58">
-        <v>0.4696774193548387</v>
+        <v>0.4633838383838384</v>
       </c>
       <c r="F58">
-        <v>0.5196078431372549</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="G58">
-        <v>0.4681647940074906</v>
+        <v>0.4654320987654321</v>
       </c>
       <c r="H58">
-        <v>0.452</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5703125</v>
+        <v>0.6180555555555556</v>
       </c>
       <c r="C59">
-        <v>0.5047619047619047</v>
+        <v>0.5061780997017469</v>
       </c>
       <c r="D59">
-        <v>0.5853658536585366</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="E59">
-        <v>0.4699738903394256</v>
+        <v>0.4801536491677337</v>
       </c>
       <c r="F59">
-        <v>0.5096153846153846</v>
+        <v>0.53</v>
       </c>
       <c r="G59">
-        <v>0.4734848484848485</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="H59">
-        <v>0.436</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6240601503759399</v>
+        <v>0.6126760563380281</v>
       </c>
       <c r="C60">
-        <v>0.5036976170912079</v>
+        <v>0.5077568134171908</v>
       </c>
       <c r="D60">
-        <v>0.5572519083969466</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="E60">
-        <v>0.4680851063829787</v>
+        <v>0.4954954954954955</v>
       </c>
       <c r="F60">
-        <v>0.4846153846153846</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="G60">
-        <v>0.4769230769230769</v>
+        <v>0.4556803995006242</v>
       </c>
       <c r="H60">
-        <v>0.43</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6271186440677966</v>
+        <v>0.6267605633802817</v>
       </c>
       <c r="C61">
-        <v>0.5024449877750611</v>
+        <v>0.505979381443299</v>
       </c>
       <c r="D61">
-        <v>0.5801526717557252</v>
+        <v>0.4873949579831933</v>
       </c>
       <c r="E61">
-        <v>0.4705882352941176</v>
+        <v>0.493573264781491</v>
       </c>
       <c r="F61">
-        <v>0.4818181818181818</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="G61">
-        <v>0.4861660079051384</v>
+        <v>0.4582814445828144</v>
       </c>
       <c r="H61">
-        <v>0.416</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.6041666666666666</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="C62">
-        <v>0.5007974481658692</v>
+        <v>0.5032388663967612</v>
       </c>
       <c r="D62">
-        <v>0.5179856115107914</v>
+        <v>0.5</v>
       </c>
       <c r="E62">
-        <v>0.4777486910994764</v>
+        <v>0.5006289308176101</v>
       </c>
       <c r="F62">
-        <v>0.4954954954954955</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="G62">
-        <v>0.4830188679245283</v>
+        <v>0.4617283950617284</v>
       </c>
       <c r="H62">
-        <v>0.414</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.6029411764705882</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="C63">
-        <v>0.5043616177636796</v>
+        <v>0.5031695721077655</v>
       </c>
       <c r="D63">
-        <v>0.5354330708661418</v>
+        <v>0.6095238095238096</v>
       </c>
       <c r="E63">
-        <v>0.4864165588615783</v>
+        <v>0.4987593052109181</v>
       </c>
       <c r="F63">
-        <v>0.4594594594594595</v>
+        <v>0.3655913978494624</v>
       </c>
       <c r="G63">
-        <v>0.488257107540173</v>
+        <v>0.4432234432234432</v>
       </c>
       <c r="H63">
-        <v>0.404</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5857142857142857</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C64">
-        <v>0.5050623052959502</v>
+        <v>0.502734375</v>
       </c>
       <c r="D64">
-        <v>0.4615384615384616</v>
+        <v>0.6126126126126126</v>
       </c>
       <c r="E64">
-        <v>0.4872448979591837</v>
+        <v>0.4937185929648241</v>
       </c>
       <c r="F64">
-        <v>0.4375</v>
+        <v>0.3908045977011494</v>
       </c>
       <c r="G64">
-        <v>0.4845105328376704</v>
+        <v>0.4451219512195122</v>
       </c>
       <c r="H64">
-        <v>0.418</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5774647887323944</v>
+        <v>0.5921052631578947</v>
       </c>
       <c r="C65">
-        <v>0.5077399380804953</v>
+        <v>0.5009731413001168</v>
       </c>
       <c r="D65">
-        <v>0.4774774774774775</v>
+        <v>0.5916666666666667</v>
       </c>
       <c r="E65">
-        <v>0.4799482535575679</v>
+        <v>0.4987012987012987</v>
       </c>
       <c r="F65">
-        <v>0.4285714285714285</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="G65">
-        <v>0.4845105328376704</v>
+        <v>0.4458281444582815</v>
       </c>
       <c r="H65">
-        <v>0.414</v>
+        <v>0.424</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5652173913043478</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="C66">
-        <v>0.5068965517241379</v>
+        <v>0.5019230769230769</v>
       </c>
       <c r="D66">
-        <v>0.44</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="E66">
-        <v>0.4734111543450065</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="F66">
-        <v>0.53</v>
+        <v>0.4661016949152542</v>
       </c>
       <c r="G66">
-        <v>0.4875311720698254</v>
+        <v>0.4401496259351621</v>
       </c>
       <c r="H66">
-        <v>0.406</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5899280575539568</v>
+        <v>0.5944055944055944</v>
       </c>
       <c r="C67">
-        <v>0.5054490792934987</v>
+        <v>0.4975200305227013</v>
       </c>
       <c r="D67">
-        <v>0.4754098360655737</v>
+        <v>0.5210084033613446</v>
       </c>
       <c r="E67">
-        <v>0.470360824742268</v>
+        <v>0.5060080106809078</v>
       </c>
       <c r="F67">
-        <v>0.5277777777777778</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="G67">
-        <v>0.4876237623762376</v>
+        <v>0.4434447300771208</v>
       </c>
       <c r="H67">
-        <v>0.394</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5968992248062015</v>
+        <v>0.5935483870967742</v>
       </c>
       <c r="C68">
-        <v>0.5053843297437802</v>
+        <v>0.496606334841629</v>
       </c>
       <c r="D68">
-        <v>0.5309734513274337</v>
+        <v>0.5540540540540541</v>
       </c>
       <c r="E68">
-        <v>0.4705882352941176</v>
+        <v>0.5026315789473684</v>
       </c>
       <c r="F68">
-        <v>0.5283018867924528</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G68">
-        <v>0.4868913857677903</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="H68">
-        <v>0.402</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.6341463414634146</v>
+        <v>0.5855263157894737</v>
       </c>
       <c r="C69">
-        <v>0.5053211009174312</v>
+        <v>0.4983114446529081</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0.5441176470588235</v>
       </c>
       <c r="E69">
-        <v>0.4704370179948586</v>
+        <v>0.5067567567567568</v>
       </c>
       <c r="F69">
-        <v>0.4722222222222222</v>
+        <v>0.5619834710743802</v>
       </c>
       <c r="G69">
-        <v>0.4842767295597484</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="H69">
-        <v>0.406</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5867768595041323</v>
+        <v>0.5743243243243243</v>
       </c>
       <c r="C70">
-        <v>0.504547108039287</v>
+        <v>0.4972314507198228</v>
       </c>
       <c r="D70">
-        <v>0.5038759689922481</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="E70">
-        <v>0.475</v>
+        <v>0.5143603133159269</v>
       </c>
       <c r="F70">
-        <v>0.4732142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="G70">
-        <v>0.4961832061068702</v>
+        <v>0.4486692015209126</v>
       </c>
       <c r="H70">
-        <v>0.408</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5669291338582677</v>
+        <v>0.5741935483870968</v>
       </c>
       <c r="C71">
-        <v>0.5071787508973439</v>
+        <v>0.4983594604447685</v>
       </c>
       <c r="D71">
-        <v>0.5149253731343284</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="E71">
-        <v>0.473753280839895</v>
+        <v>0.533508541392904</v>
       </c>
       <c r="F71">
-        <v>0.4166666666666667</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="G71">
-        <v>0.4885496183206107</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="H71">
-        <v>0.41</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5433070866141733</v>
+        <v>0.5753424657534246</v>
       </c>
       <c r="C72">
-        <v>0.5083126989741775</v>
+        <v>0.4965691585409895</v>
       </c>
       <c r="D72">
-        <v>0.4960629921259843</v>
+        <v>0.4491525423728814</v>
       </c>
       <c r="E72">
-        <v>0.4755784061696658</v>
+        <v>0.5134443021766966</v>
       </c>
       <c r="F72">
+        <v>0.4205607476635514</v>
+      </c>
+      <c r="G72">
         <v>0.459016393442623</v>
       </c>
-      <c r="G72">
-        <v>0.479297365119197</v>
-      </c>
       <c r="H72">
-        <v>0.418</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.6165413533834586</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="C73">
-        <v>0.5075359270942867</v>
+        <v>0.4951905949412184</v>
       </c>
       <c r="D73">
-        <v>0.4796747967479675</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="E73">
-        <v>0.4795918367346939</v>
+        <v>0.5115681233933161</v>
       </c>
       <c r="F73">
-        <v>0.40625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="G73">
-        <v>0.4773299748110831</v>
+        <v>0.46875</v>
       </c>
       <c r="H73">
-        <v>0.426</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6029411764705882</v>
+        <v>0.6308724832214765</v>
       </c>
       <c r="C74">
-        <v>0.5036572622779519</v>
+        <v>0.4950530035335689</v>
       </c>
       <c r="D74">
-        <v>0.4782608695652174</v>
+        <v>0.4434782608695652</v>
       </c>
       <c r="E74">
-        <v>0.4811932555123217</v>
+        <v>0.5161707632600259</v>
       </c>
       <c r="F74">
-        <v>0.4117647058823529</v>
+        <v>0.5876288659793815</v>
       </c>
       <c r="G74">
-        <v>0.4665012406947891</v>
+        <v>0.4564676616915423</v>
       </c>
       <c r="H74">
-        <v>0.428</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5895522388059702</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="C75">
-        <v>0.5043177892918825</v>
+        <v>0.491062039957939</v>
       </c>
       <c r="D75">
-        <v>0.5241935483870968</v>
+        <v>0.4957983193277311</v>
       </c>
       <c r="E75">
-        <v>0.4819587628865979</v>
+        <v>0.5173299101412067</v>
       </c>
       <c r="F75">
-        <v>0.4054054054054054</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="G75">
-        <v>0.468671679197995</v>
+        <v>0.4542079207920792</v>
       </c>
       <c r="H75">
-        <v>0.42</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.6165413533834586</v>
+        <v>0.752</v>
       </c>
       <c r="C76">
-        <v>0.5051229508196722</v>
+        <v>0.4919160646714826</v>
       </c>
       <c r="D76">
-        <v>0.4715447154471545</v>
+        <v>0.5304347826086957</v>
       </c>
       <c r="E76">
-        <v>0.4746423927178153</v>
+        <v>0.5006369426751592</v>
       </c>
       <c r="F76">
-        <v>0.4491525423728814</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="G76">
-        <v>0.4633838383838384</v>
+        <v>0.4570361145703611</v>
       </c>
       <c r="H76">
-        <v>0.43</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.6285714285714286</v>
+        <v>0.6691729323308271</v>
       </c>
       <c r="C77">
-        <v>0.5028590649175917</v>
+        <v>0.4882613133718952</v>
       </c>
       <c r="D77">
-        <v>0.5043478260869565</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E77">
-        <v>0.4827586206896552</v>
+        <v>0.4967989756722151</v>
       </c>
       <c r="F77">
-        <v>0.4724409448818898</v>
+        <v>0.55</v>
       </c>
       <c r="G77">
-        <v>0.4521410579345088</v>
+        <v>0.467843631778058</v>
       </c>
       <c r="H77">
-        <v>0.442</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.6180555555555556</v>
+        <v>0.6016260162601627</v>
       </c>
       <c r="C78">
-        <v>0.5021746403479425</v>
+        <v>0.4913647138503217</v>
       </c>
       <c r="D78">
-        <v>0.4653465346534654</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="E78">
-        <v>0.4775928297055058</v>
+        <v>0.5</v>
       </c>
       <c r="F78">
-        <v>0.5242718446601942</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="G78">
-        <v>0.4511568123393316</v>
+        <v>0.4720812182741117</v>
       </c>
       <c r="H78">
-        <v>0.44</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.6590909090909091</v>
+        <v>0.5950413223140496</v>
       </c>
       <c r="C79">
-        <v>0.5048156758551976</v>
+        <v>0.496144820650352</v>
       </c>
       <c r="D79">
-        <v>0.4649122807017544</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
-        <v>0.4820512820512821</v>
+        <v>0.492</v>
       </c>
       <c r="F79">
-        <v>0.5169491525423728</v>
+        <v>0.4962406015037594</v>
       </c>
       <c r="G79">
-        <v>0.4414758269720102</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="H79">
-        <v>0.432</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5971223021582733</v>
+        <v>0.5511811023622047</v>
       </c>
       <c r="C80">
-        <v>0.5057170859196342</v>
+        <v>0.4966821499668215</v>
       </c>
       <c r="D80">
-        <v>0.4358974358974359</v>
+        <v>0.4685314685314685</v>
       </c>
       <c r="E80">
-        <v>0.4763729246487867</v>
+        <v>0.4807947019867549</v>
       </c>
       <c r="F80">
-        <v>0.52</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="G80">
-        <v>0.4417721518987342</v>
+        <v>0.4797385620915033</v>
       </c>
       <c r="H80">
-        <v>0.426</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5873015873015873</v>
+        <v>0.5413533834586466</v>
       </c>
       <c r="C81">
-        <v>0.5050243111831443</v>
+        <v>0.4995077125041024</v>
       </c>
       <c r="D81">
-        <v>0.3793103448275862</v>
+        <v>0.5338345864661654</v>
       </c>
       <c r="E81">
-        <v>0.4790343074968234</v>
+        <v>0.4823066841415465</v>
       </c>
       <c r="F81">
-        <v>0.5225225225225225</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="G81">
-        <v>0.4405063291139241</v>
+        <v>0.4839948783610755</v>
       </c>
       <c r="H81">
-        <v>0.444</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5639097744360902</v>
+        <v>0.5642857142857143</v>
       </c>
       <c r="C82">
-        <v>0.5059124320869287</v>
+        <v>0.5008135372600065</v>
       </c>
       <c r="D82">
-        <v>0.5217391304347826</v>
+        <v>0.5092592592592593</v>
       </c>
       <c r="E82">
-        <v>0.4809160305343512</v>
+        <v>0.4684684684684685</v>
       </c>
       <c r="F82">
-        <v>0.4951456310679612</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="G82">
-        <v>0.4389027431421446</v>
+        <v>0.4777227722772277</v>
       </c>
       <c r="H82">
-        <v>0.462</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5547445255474452</v>
+        <v>0.5547945205479452</v>
       </c>
       <c r="C83">
-        <v>0.5050922978994271</v>
+        <v>0.5012911555842479</v>
       </c>
       <c r="D83">
-        <v>0.495575221238938</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="E83">
-        <v>0.4748387096774194</v>
+        <v>0.4721518987341772</v>
       </c>
       <c r="F83">
-        <v>0.4736842105263158</v>
+        <v>0.5257731958762887</v>
       </c>
       <c r="G83">
-        <v>0.4398496240601504</v>
+        <v>0.4926108374384237</v>
       </c>
       <c r="H83">
-        <v>0.47</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.6030534351145038</v>
+        <v>0.5899280575539568</v>
       </c>
       <c r="C84">
-        <v>0.5041217501585289</v>
+        <v>0.5027217419148254</v>
       </c>
       <c r="D84">
-        <v>0.5317460317460317</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="E84">
-        <v>0.4738219895287958</v>
+        <v>0.4766839378238342</v>
       </c>
       <c r="F84">
-        <v>0.4655172413793103</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="G84">
-        <v>0.4506329113924051</v>
+        <v>0.4950617283950617</v>
       </c>
       <c r="H84">
-        <v>0.46</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.6259541984732825</v>
+        <v>0.6015625</v>
       </c>
       <c r="C85">
-        <v>0.503907471084714</v>
+        <v>0.5001588814744201</v>
       </c>
       <c r="D85">
-        <v>0.532258064516129</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="E85">
-        <v>0.4719687092568449</v>
+        <v>0.4663143989431968</v>
       </c>
       <c r="F85">
-        <v>0.5083333333333333</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G85">
-        <v>0.4553571428571428</v>
+        <v>0.4861460957178841</v>
       </c>
       <c r="H85">
-        <v>0.448</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.6097560975609756</v>
+        <v>0.5736434108527132</v>
       </c>
       <c r="C86">
-        <v>0.4993819530284301</v>
+        <v>0.5012476606363069</v>
       </c>
       <c r="D86">
-        <v>0.4273504273504273</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="E86">
-        <v>0.4752851711026616</v>
+        <v>0.4695989650711513</v>
       </c>
       <c r="F86">
-        <v>0.4954128440366973</v>
+        <v>0.4700854700854701</v>
       </c>
       <c r="G86">
-        <v>0.4548872180451128</v>
+        <v>0.4882280049566295</v>
       </c>
       <c r="H86">
-        <v>0.434</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5970149253731343</v>
+        <v>0.624</v>
       </c>
       <c r="C87">
-        <v>0.4958499846295727</v>
+        <v>0.5033971587399629</v>
       </c>
       <c r="D87">
-        <v>0.5480769230769231</v>
+        <v>0.4128440366972477</v>
       </c>
       <c r="E87">
-        <v>0.4871134020618557</v>
+        <v>0.4595959595959596</v>
       </c>
       <c r="F87">
-        <v>0.5</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="G87">
-        <v>0.4575411913814956</v>
+        <v>0.4753086419753086</v>
       </c>
       <c r="H87">
-        <v>0.418</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5652173913043478</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="C88">
-        <v>0.4937251300887665</v>
+        <v>0.5003063725490197</v>
       </c>
       <c r="D88">
-        <v>0.5725190839694656</v>
+        <v>0.3883495145631068</v>
       </c>
       <c r="E88">
-        <v>0.4779792746113989</v>
+        <v>0.4804539722572509</v>
       </c>
       <c r="F88">
-        <v>0.5083333333333333</v>
+        <v>0.5104166666666666</v>
       </c>
       <c r="G88">
-        <v>0.4557124518613607</v>
+        <v>0.4705159705159705</v>
       </c>
       <c r="H88">
-        <v>0.412</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,22 +2688,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.5693430656934306</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C89">
-        <v>0.4965140951803577</v>
+        <v>0.498318557016203</v>
       </c>
       <c r="D89">
-        <v>0.5606060606060606</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="E89">
-        <v>0.4823066841415465</v>
+        <v>0.4720101781170484</v>
       </c>
       <c r="F89">
-        <v>0.496</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G89">
-        <v>0.4424552429667519</v>
+        <v>0.4699248120300752</v>
       </c>
       <c r="H89">
         <v>0.418</v>
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5985401459854015</v>
+        <v>0.5877862595419847</v>
       </c>
       <c r="C90">
-        <v>0.4965496549654965</v>
+        <v>0.4968114181597328</v>
       </c>
       <c r="D90">
-        <v>0.5079365079365079</v>
+        <v>0.4885496183206107</v>
       </c>
       <c r="E90">
-        <v>0.4915032679738562</v>
+        <v>0.4715762273901809</v>
       </c>
       <c r="F90">
-        <v>0.4953271028037383</v>
+        <v>0.55</v>
       </c>
       <c r="G90">
-        <v>0.4443021766965429</v>
+        <v>0.4726810673443456</v>
       </c>
       <c r="H90">
-        <v>0.404</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5405405405405406</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="C91">
-        <v>0.4958407605466429</v>
+        <v>0.495500899820036</v>
       </c>
       <c r="D91">
-        <v>0.5038167938931297</v>
+        <v>0.5153846153846153</v>
       </c>
       <c r="E91">
-        <v>0.4896640826873385</v>
+        <v>0.4692005242463958</v>
       </c>
       <c r="F91">
-        <v>0.4824561403508772</v>
+        <v>0.5511811023622047</v>
       </c>
       <c r="G91">
-        <v>0.44875</v>
+        <v>0.4604591836734694</v>
       </c>
       <c r="H91">
-        <v>0.408</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.6074074074074074</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="C92">
-        <v>0.4974814814814815</v>
+        <v>0.4937833037300178</v>
       </c>
       <c r="D92">
-        <v>0.5038167938931297</v>
+        <v>0.552</v>
       </c>
       <c r="E92">
-        <v>0.484251968503937</v>
+        <v>0.4650259067357513</v>
       </c>
       <c r="F92">
-        <v>0.5043478260869565</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="G92">
-        <v>0.4521410579345088</v>
+        <v>0.4521072796934866</v>
       </c>
       <c r="H92">
-        <v>0.41</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.6142857142857143</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C93">
-        <v>0.4950321449444769</v>
+        <v>0.4911971830985916</v>
       </c>
       <c r="D93">
-        <v>0.5234375</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E93">
-        <v>0.484375</v>
+        <v>0.4675984752223634</v>
       </c>
       <c r="F93">
-        <v>0.5206611570247934</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="G93">
-        <v>0.4440251572327044</v>
+        <v>0.45125</v>
       </c>
       <c r="H93">
-        <v>0.422</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2818,25 +2818,25 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.578125</v>
+        <v>0.5859375</v>
       </c>
       <c r="C94">
-        <v>0.492606552623949</v>
+        <v>0.4923032239326169</v>
       </c>
       <c r="D94">
-        <v>0.5572519083969466</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E94">
-        <v>0.479539641943734</v>
+        <v>0.4767295597484277</v>
       </c>
       <c r="F94">
-        <v>0.5454545454545454</v>
+        <v>0.5663716814159292</v>
       </c>
       <c r="G94">
-        <v>0.4448621553884712</v>
+        <v>0.4508094645080947</v>
       </c>
       <c r="H94">
-        <v>0.424</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2844,25 +2844,25 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.6068376068376068</v>
+        <v>0.6</v>
       </c>
       <c r="C95">
-        <v>0.4927953890489913</v>
+        <v>0.4939620471535365</v>
       </c>
       <c r="D95">
-        <v>0.546875</v>
+        <v>0.5779816513761468</v>
       </c>
       <c r="E95">
-        <v>0.4701195219123506</v>
+        <v>0.4854981084489281</v>
       </c>
       <c r="F95">
-        <v>0.5428571428571428</v>
+        <v>0.5046728971962616</v>
       </c>
       <c r="G95">
-        <v>0.4457070707070707</v>
+        <v>0.4493670886075949</v>
       </c>
       <c r="H95">
-        <v>0.42</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2870,25 +2870,25 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.5905511811023622</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C96">
-        <v>0.493576934056523</v>
+        <v>0.4949985710202915</v>
       </c>
       <c r="D96">
-        <v>0.5874125874125874</v>
+        <v>0.5803571428571429</v>
       </c>
       <c r="E96">
-        <v>0.4732620320855615</v>
+        <v>0.4847715736040609</v>
       </c>
       <c r="F96">
-        <v>0.4836065573770492</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="G96">
-        <v>0.4457215836526182</v>
+        <v>0.4522613065326633</v>
       </c>
       <c r="H96">
-        <v>0.422</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2896,25 +2896,25 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.55</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C97">
-        <v>0.4914675767918089</v>
+        <v>0.4933257597273502</v>
       </c>
       <c r="D97">
-        <v>0.5401459854014599</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="E97">
-        <v>0.4758713136729222</v>
+        <v>0.4955070603337612</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="G97">
-        <v>0.4512820512820513</v>
+        <v>0.4531645569620253</v>
       </c>
       <c r="H97">
-        <v>0.434</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2922,25 +2922,25 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.6111111111111112</v>
+        <v>0.5419847328244275</v>
       </c>
       <c r="C98">
-        <v>0.4934844192634561</v>
+        <v>0.4974733295901179</v>
       </c>
       <c r="D98">
-        <v>0.5857142857142857</v>
+        <v>0.4958677685950413</v>
       </c>
       <c r="E98">
-        <v>0.4835742444152431</v>
+        <v>0.5037878787878788</v>
       </c>
       <c r="F98">
-        <v>0.4778761061946903</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="G98">
-        <v>0.4516539440203562</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="H98">
-        <v>0.432</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2948,25 +2948,25 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6879432624113475</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C99">
-        <v>0.4899272523782877</v>
+        <v>0.4951103660240291</v>
       </c>
       <c r="D99">
-        <v>0.5434782608695652</v>
+        <v>0.4205607476635514</v>
       </c>
       <c r="E99">
-        <v>0.4799482535575679</v>
+        <v>0.4961139896373057</v>
       </c>
       <c r="F99">
-        <v>0.4444444444444444</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="G99">
-        <v>0.454320987654321</v>
+        <v>0.4496815286624204</v>
       </c>
       <c r="H99">
-        <v>0.438</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2974,25 +2974,25 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6506849315068494</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C100">
-        <v>0.4851677294150263</v>
+        <v>0.4948767654389366</v>
       </c>
       <c r="D100">
-        <v>0.5486725663716814</v>
+        <v>0.5785123966942148</v>
       </c>
       <c r="E100">
-        <v>0.4891165172855313</v>
+        <v>0.4974424552429668</v>
       </c>
       <c r="F100">
-        <v>0.4742268041237113</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="G100">
-        <v>0.4609756097560976</v>
+        <v>0.4433249370277078</v>
       </c>
       <c r="H100">
-        <v>0.442</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3000,25 +3000,25 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.6</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="C101">
-        <v>0.4845814977973568</v>
+        <v>0.4935634072856752</v>
       </c>
       <c r="D101">
-        <v>0.5739130434782609</v>
+        <v>0.6036036036036037</v>
       </c>
       <c r="E101">
-        <v>0.4937027707808564</v>
+        <v>0.4813863928112965</v>
       </c>
       <c r="F101">
-        <v>0.4505494505494506</v>
+        <v>0.4622641509433962</v>
       </c>
       <c r="G101">
-        <v>0.4634146341463415</v>
+        <v>0.4445843828715365</v>
       </c>
       <c r="H101">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
